--- a/docs/Decodifiche/93_dec_tipo_notifica.xlsx
+++ b/docs/Decodifiche/93_dec_tipo_notifica.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>SC18</t>
+  </si>
+  <si>
+    <t>NOTIFICA DI DISCORDANZA ANAGRAFICA</t>
+  </si>
+  <si>
+    <t>2023-10-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -563,6 +575,23 @@
         <v>57</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/93_dec_tipo_notifica.xlsx
+++ b/docs/Decodifiche/93_dec_tipo_notifica.xlsx
@@ -47,7 +47,7 @@
     <t>SC02</t>
   </si>
   <si>
-    <t>NOTIFICA DI ISCRIZIONE AIRE</t>
+    <t>NOTIFICA DI ISCRIZIONE O MUTAZIONE AIRE</t>
   </si>
   <si>
     <t>2</t>
